--- a/contact_us.xlsx
+++ b/contact_us.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,71 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2024-01-19 20:59:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2024-01-19 20:59:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2024-01-19 21:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>bnm</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>bn</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>e22cseu1157@bennett.edu.in</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7900413818</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>hjgfghjk</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2024-01-19 21:02:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2024-01-19 21:03:29</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/contact_us.xlsx
+++ b/contact_us.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,14 +539,28 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>2024-01-19 21:03:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2024-01-19 22:22:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2024-01-20 00:11:12</t>
         </is>
       </c>
     </row>
